--- a/outputProbabilidadesPorEtapa.xlsx
+++ b/outputProbabilidadesPorEtapa.xlsx
@@ -40,97 +40,97 @@
     <t>Brasil</t>
   </si>
   <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
     <t>Bélgica</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>França</t>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t>Espanha</t>
+  </si>
+  <si>
+    <t>Portugal</t>
   </si>
   <si>
     <t>Inglaterra</t>
   </si>
   <si>
-    <t>Espanha</t>
-  </si>
-  <si>
-    <t>Holanda</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
     <t>Dinamarca</t>
   </si>
   <si>
+    <t>Croácia</t>
+  </si>
+  <si>
+    <t>Alemanha</t>
+  </si>
+  <si>
     <t>Uruguai</t>
   </si>
   <si>
+    <t>Suíça</t>
+  </si>
+  <si>
     <t>México</t>
   </si>
   <si>
-    <t>Alemanha</t>
-  </si>
-  <si>
-    <t>Croácia</t>
-  </si>
-  <si>
     <t>Estados Unidos</t>
   </si>
   <si>
-    <t>Suíça</t>
+    <t>Sérvia</t>
+  </si>
+  <si>
+    <t>Polônia</t>
   </si>
   <si>
     <t>Senegal</t>
   </si>
   <si>
+    <t>Irã</t>
+  </si>
+  <si>
+    <t>Equador</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>Coreia do Sul</t>
+  </si>
+  <si>
     <t>País de Gales</t>
   </si>
   <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>Marrocos</t>
   </si>
   <si>
-    <t>Polônia</t>
-  </si>
-  <si>
-    <t>Irã</t>
-  </si>
-  <si>
-    <t>Sérvia</t>
-  </si>
-  <si>
-    <t>Japão</t>
-  </si>
-  <si>
-    <t>Coreia do Sul</t>
+    <t>Austrália</t>
   </si>
   <si>
     <t>Tunísia</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Arábia Saudita</t>
   </si>
   <si>
     <t>Camarões</t>
   </si>
   <si>
-    <t>Equador</t>
-  </si>
-  <si>
-    <t>Austrália</t>
-  </si>
-  <si>
-    <t>Canadá</t>
-  </si>
-  <si>
     <t>Catar</t>
   </si>
   <si>
     <t>Gana</t>
-  </si>
-  <si>
-    <t>Arábia Saudita</t>
   </si>
 </sst>
 </file>
@@ -522,22 +522,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.1526</v>
+        <v>0.164</v>
       </c>
       <c r="C2">
-        <v>0.2784000000000001</v>
+        <v>0.2887</v>
       </c>
       <c r="D2">
-        <v>0.2165</v>
+        <v>0.2047</v>
       </c>
       <c r="E2">
-        <v>0.1381</v>
+        <v>0.1323</v>
       </c>
       <c r="F2">
-        <v>0.07950000000000002</v>
+        <v>0.08739999999999999</v>
       </c>
       <c r="G2">
-        <v>0.1349</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -545,22 +545,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1613</v>
+        <v>0.1827</v>
       </c>
       <c r="C3">
-        <v>0.2962</v>
+        <v>0.3231000000000001</v>
       </c>
       <c r="D3">
-        <v>0.2193</v>
+        <v>0.1826</v>
       </c>
       <c r="E3">
-        <v>0.1287</v>
+        <v>0.1361</v>
       </c>
       <c r="F3">
-        <v>0.0819</v>
+        <v>0.06979999999999999</v>
       </c>
       <c r="G3">
-        <v>0.1126</v>
+        <v>0.1057</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -568,22 +568,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1862</v>
+        <v>0.198</v>
       </c>
       <c r="C4">
-        <v>0.3235999999999999</v>
+        <v>0.3190000000000001</v>
       </c>
       <c r="D4">
-        <v>0.1902</v>
+        <v>0.1875</v>
       </c>
       <c r="E4">
-        <v>0.1289</v>
+        <v>0.1304</v>
       </c>
       <c r="F4">
-        <v>0.07250000000000001</v>
+        <v>0.073</v>
       </c>
       <c r="G4">
-        <v>0.09859999999999999</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -591,22 +591,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1843</v>
+        <v>0.2164</v>
       </c>
       <c r="C5">
-        <v>0.3322</v>
+        <v>0.3210999999999999</v>
       </c>
       <c r="D5">
-        <v>0.1888</v>
+        <v>0.2109</v>
       </c>
       <c r="E5">
-        <v>0.1254</v>
+        <v>0.1091</v>
       </c>
       <c r="F5">
-        <v>0.0746</v>
+        <v>0.06539999999999999</v>
       </c>
       <c r="G5">
-        <v>0.09470000000000001</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -614,22 +614,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2801</v>
+        <v>0.1830000000000001</v>
       </c>
       <c r="C6">
-        <v>0.2532</v>
+        <v>0.3244</v>
       </c>
       <c r="D6">
-        <v>0.2083</v>
+        <v>0.224</v>
       </c>
       <c r="E6">
-        <v>0.1187</v>
+        <v>0.1319</v>
       </c>
       <c r="F6">
-        <v>0.06609999999999999</v>
+        <v>0.06259999999999999</v>
       </c>
       <c r="G6">
-        <v>0.0736</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -637,22 +637,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2599</v>
+        <v>0.2677</v>
       </c>
       <c r="C7">
-        <v>0.3368</v>
+        <v>0.2989999999999999</v>
       </c>
       <c r="D7">
-        <v>0.1801</v>
+        <v>0.197</v>
       </c>
       <c r="E7">
-        <v>0.1038</v>
+        <v>0.1036</v>
       </c>
       <c r="F7">
-        <v>0.05760000000000001</v>
+        <v>0.06020000000000002</v>
       </c>
       <c r="G7">
-        <v>0.0618</v>
+        <v>0.0725</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -660,22 +660,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1777</v>
+        <v>0.2193000000000001</v>
       </c>
       <c r="C8">
-        <v>0.3814</v>
+        <v>0.3670999999999999</v>
       </c>
       <c r="D8">
-        <v>0.2206</v>
+        <v>0.1913</v>
       </c>
       <c r="E8">
-        <v>0.1106</v>
+        <v>0.1025</v>
       </c>
       <c r="F8">
-        <v>0.05910000000000001</v>
+        <v>0.058</v>
       </c>
       <c r="G8">
-        <v>0.0506</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -683,22 +683,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.223</v>
+        <v>0.2906</v>
       </c>
       <c r="C9">
-        <v>0.371</v>
+        <v>0.2844</v>
       </c>
       <c r="D9">
-        <v>0.1966</v>
+        <v>0.2008</v>
       </c>
       <c r="E9">
-        <v>0.1029</v>
+        <v>0.1076</v>
       </c>
       <c r="F9">
-        <v>0.05599999999999999</v>
+        <v>0.05809999999999999</v>
       </c>
       <c r="G9">
-        <v>0.0505</v>
+        <v>0.0585</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -706,22 +706,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3069</v>
+        <v>0.3048999999999999</v>
       </c>
       <c r="C10">
-        <v>0.3399</v>
+        <v>0.3330000000000001</v>
       </c>
       <c r="D10">
-        <v>0.1669</v>
+        <v>0.1713</v>
       </c>
       <c r="E10">
-        <v>0.0958</v>
+        <v>0.097</v>
       </c>
       <c r="F10">
-        <v>0.0472</v>
+        <v>0.0512</v>
       </c>
       <c r="G10">
-        <v>0.0433</v>
+        <v>0.0426</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -729,22 +729,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2631</v>
+        <v>0.3221000000000001</v>
       </c>
       <c r="C11">
-        <v>0.3822</v>
+        <v>0.3265999999999999</v>
       </c>
       <c r="D11">
-        <v>0.1831</v>
+        <v>0.1824</v>
       </c>
       <c r="E11">
-        <v>0.09040000000000001</v>
+        <v>0.0838</v>
       </c>
       <c r="F11">
-        <v>0.04289999999999999</v>
+        <v>0.0435</v>
       </c>
       <c r="G11">
-        <v>0.0383</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -752,22 +752,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3235</v>
+        <v>0.385</v>
       </c>
       <c r="C12">
-        <v>0.3348</v>
+        <v>0.2936</v>
       </c>
       <c r="D12">
-        <v>0.1661</v>
+        <v>0.1622</v>
       </c>
       <c r="E12">
-        <v>0.0961</v>
+        <v>0.0815</v>
       </c>
       <c r="F12">
-        <v>0.0427</v>
+        <v>0.0406</v>
       </c>
       <c r="G12">
-        <v>0.0368</v>
+        <v>0.0371</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -775,22 +775,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3548</v>
+        <v>0.2911</v>
       </c>
       <c r="C13">
-        <v>0.3223</v>
+        <v>0.3758</v>
       </c>
       <c r="D13">
-        <v>0.1647</v>
+        <v>0.1697</v>
       </c>
       <c r="E13">
-        <v>0.0824</v>
+        <v>0.08419999999999998</v>
       </c>
       <c r="F13">
-        <v>0.0401</v>
+        <v>0.04370000000000001</v>
       </c>
       <c r="G13">
-        <v>0.0357</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -798,22 +798,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4224</v>
+        <v>0.4122</v>
       </c>
       <c r="C14">
-        <v>0.2879</v>
+        <v>0.289</v>
       </c>
       <c r="D14">
-        <v>0.1505</v>
+        <v>0.1558</v>
       </c>
       <c r="E14">
-        <v>0.07609999999999999</v>
+        <v>0.07519999999999999</v>
       </c>
       <c r="F14">
-        <v>0.0362</v>
+        <v>0.0399</v>
       </c>
       <c r="G14">
-        <v>0.0269</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -821,22 +821,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4568</v>
+        <v>0.4334</v>
       </c>
       <c r="C15">
-        <v>0.2415</v>
+        <v>0.3037</v>
       </c>
       <c r="D15">
-        <v>0.1584</v>
+        <v>0.1372</v>
       </c>
       <c r="E15">
-        <v>0.07750000000000001</v>
+        <v>0.07150000000000001</v>
       </c>
       <c r="F15">
-        <v>0.0391</v>
+        <v>0.0312</v>
       </c>
       <c r="G15">
-        <v>0.0267</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -844,22 +844,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4325</v>
+        <v>0.484</v>
       </c>
       <c r="C16">
-        <v>0.2782</v>
+        <v>0.2591</v>
       </c>
       <c r="D16">
-        <v>0.1596</v>
+        <v>0.1428</v>
       </c>
       <c r="E16">
-        <v>0.06840000000000002</v>
+        <v>0.06509999999999999</v>
       </c>
       <c r="F16">
-        <v>0.0372</v>
+        <v>0.0284</v>
       </c>
       <c r="G16">
-        <v>0.0241</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -867,22 +867,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3173</v>
+        <v>0.5408999999999999</v>
       </c>
       <c r="C17">
-        <v>0.376</v>
+        <v>0.2541</v>
       </c>
       <c r="D17">
-        <v>0.1781</v>
+        <v>0.1164</v>
       </c>
       <c r="E17">
-        <v>0.07579999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="F17">
-        <v>0.0321</v>
+        <v>0.0228</v>
       </c>
       <c r="G17">
-        <v>0.0207</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -890,22 +890,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6056</v>
+        <v>0.5197000000000001</v>
       </c>
       <c r="C18">
-        <v>0.197</v>
+        <v>0.2753</v>
       </c>
       <c r="D18">
-        <v>0.1153</v>
+        <v>0.1125</v>
       </c>
       <c r="E18">
-        <v>0.0514</v>
+        <v>0.0568</v>
       </c>
       <c r="F18">
-        <v>0.0189</v>
+        <v>0.0214</v>
       </c>
       <c r="G18">
-        <v>0.0118</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -913,22 +913,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5948</v>
+        <v>0.4646</v>
       </c>
       <c r="C19">
-        <v>0.2345</v>
+        <v>0.308</v>
       </c>
       <c r="D19">
-        <v>0.1045</v>
+        <v>0.1394</v>
       </c>
       <c r="E19">
-        <v>0.0407</v>
+        <v>0.0537</v>
       </c>
       <c r="F19">
-        <v>0.016</v>
+        <v>0.0222</v>
       </c>
       <c r="G19">
-        <v>0.0095</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -936,22 +936,22 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6051</v>
+        <v>0.5893999999999999</v>
       </c>
       <c r="C20">
-        <v>0.2442</v>
+        <v>0.2184</v>
       </c>
       <c r="D20">
-        <v>0.08799999999999999</v>
+        <v>0.1161</v>
       </c>
       <c r="E20">
-        <v>0.0389</v>
+        <v>0.0455</v>
       </c>
       <c r="F20">
-        <v>0.0149</v>
+        <v>0.0188</v>
       </c>
       <c r="G20">
-        <v>0.0089</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -959,22 +959,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6575</v>
+        <v>0.4814000000000001</v>
       </c>
       <c r="C21">
-        <v>0.1843</v>
+        <v>0.2980999999999999</v>
       </c>
       <c r="D21">
-        <v>0.09790000000000001</v>
+        <v>0.1381</v>
       </c>
       <c r="E21">
-        <v>0.0377</v>
+        <v>0.051</v>
       </c>
       <c r="F21">
-        <v>0.0145</v>
+        <v>0.0206</v>
       </c>
       <c r="G21">
-        <v>0.0081</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -982,22 +982,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6161</v>
+        <v>0.6145</v>
       </c>
       <c r="C22">
-        <v>0.2219</v>
+        <v>0.2315</v>
       </c>
       <c r="D22">
-        <v>0.1024</v>
+        <v>0.0965</v>
       </c>
       <c r="E22">
-        <v>0.0384</v>
+        <v>0.0353</v>
       </c>
       <c r="F22">
-        <v>0.0135</v>
+        <v>0.0126</v>
       </c>
       <c r="G22">
-        <v>0.0077</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1005,22 +1005,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6129</v>
+        <v>0.5358000000000001</v>
       </c>
       <c r="C23">
-        <v>0.2428</v>
+        <v>0.2965</v>
       </c>
       <c r="D23">
-        <v>0.08800000000000001</v>
+        <v>0.1032</v>
       </c>
       <c r="E23">
-        <v>0.0336</v>
+        <v>0.0391</v>
       </c>
       <c r="F23">
-        <v>0.0154</v>
+        <v>0.0173</v>
       </c>
       <c r="G23">
-        <v>0.0073</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1028,22 +1028,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5711999999999999</v>
+        <v>0.636</v>
       </c>
       <c r="C24">
-        <v>0.2806</v>
+        <v>0.208</v>
       </c>
       <c r="D24">
-        <v>0.09609999999999999</v>
+        <v>0.097</v>
       </c>
       <c r="E24">
-        <v>0.0336</v>
+        <v>0.03759999999999999</v>
       </c>
       <c r="F24">
-        <v>0.0114</v>
+        <v>0.0138</v>
       </c>
       <c r="G24">
-        <v>0.0071</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1051,22 +1051,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7167</v>
+        <v>0.7328</v>
       </c>
       <c r="C25">
-        <v>0.1887</v>
+        <v>0.1704</v>
       </c>
       <c r="D25">
-        <v>0.0617</v>
+        <v>0.0613</v>
       </c>
       <c r="E25">
-        <v>0.0227</v>
+        <v>0.0234</v>
       </c>
       <c r="F25">
-        <v>0.0077</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="G25">
-        <v>0.0025</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1074,22 +1074,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7724</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="C26">
-        <v>0.1543</v>
+        <v>0.1924</v>
       </c>
       <c r="D26">
-        <v>0.0491</v>
+        <v>0.06770000000000001</v>
       </c>
       <c r="E26">
-        <v>0.0167</v>
+        <v>0.0227</v>
       </c>
       <c r="F26">
-        <v>0.0055</v>
+        <v>0.007600000000000001</v>
       </c>
       <c r="G26">
-        <v>0.002</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1097,22 +1097,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7988</v>
+        <v>0.7512</v>
       </c>
       <c r="C27">
-        <v>0.1386</v>
+        <v>0.1686</v>
       </c>
       <c r="D27">
-        <v>0.0432</v>
+        <v>0.04899999999999999</v>
       </c>
       <c r="E27">
-        <v>0.0133</v>
+        <v>0.0208</v>
       </c>
       <c r="F27">
-        <v>0.0044</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="G27">
-        <v>0.0017</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1120,22 +1120,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.7194</v>
+        <v>0.7459</v>
       </c>
       <c r="C28">
-        <v>0.2053</v>
+        <v>0.1717</v>
       </c>
       <c r="D28">
-        <v>0.05690000000000001</v>
+        <v>0.0541</v>
       </c>
       <c r="E28">
-        <v>0.0139</v>
+        <v>0.0203</v>
       </c>
       <c r="F28">
-        <v>0.0033</v>
+        <v>0.005600000000000001</v>
       </c>
       <c r="G28">
-        <v>0.0012</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1143,22 +1143,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.7921</v>
+        <v>0.7554</v>
       </c>
       <c r="C29">
-        <v>0.1464</v>
+        <v>0.1654</v>
       </c>
       <c r="D29">
-        <v>0.043</v>
+        <v>0.05470000000000001</v>
       </c>
       <c r="E29">
-        <v>0.0133</v>
+        <v>0.0174</v>
       </c>
       <c r="F29">
-        <v>0.004</v>
+        <v>0.0051</v>
       </c>
       <c r="G29">
-        <v>0.0012</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1166,22 +1166,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.8215</v>
+        <v>0.8642</v>
       </c>
       <c r="C30">
-        <v>0.1252</v>
+        <v>0.1056</v>
       </c>
       <c r="D30">
-        <v>0.039</v>
+        <v>0.0235</v>
       </c>
       <c r="E30">
-        <v>0.0109</v>
+        <v>0.0043</v>
       </c>
       <c r="F30">
-        <v>0.0028</v>
+        <v>0.0017</v>
       </c>
       <c r="G30">
-        <v>0.0005999999999999999</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1189,22 +1189,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.7856</v>
+        <v>0.8829</v>
       </c>
       <c r="C31">
-        <v>0.1613</v>
+        <v>0.08929999999999999</v>
       </c>
       <c r="D31">
-        <v>0.0408</v>
+        <v>0.0206</v>
       </c>
       <c r="E31">
-        <v>0.0102</v>
+        <v>0.004999999999999999</v>
       </c>
       <c r="F31">
-        <v>0.0015</v>
+        <v>0.0018</v>
       </c>
       <c r="G31">
-        <v>0.0005999999999999999</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1212,22 +1212,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.9427</v>
+        <v>0.871</v>
       </c>
       <c r="C32">
-        <v>0.0491</v>
+        <v>0.09960000000000001</v>
       </c>
       <c r="D32">
-        <v>0.007300000000000001</v>
+        <v>0.0241</v>
       </c>
       <c r="E32">
-        <v>0.0009</v>
+        <v>0.0042</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.0008000000000000001</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1235,19 +1235,19 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.8852</v>
+        <v>0.9538</v>
       </c>
       <c r="C33">
-        <v>0.0902</v>
+        <v>0.0395</v>
       </c>
       <c r="D33">
-        <v>0.019</v>
+        <v>0.0056</v>
       </c>
       <c r="E33">
-        <v>0.0042</v>
+        <v>0.0011</v>
       </c>
       <c r="F33">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>

--- a/outputProbabilidadesPorEtapa.xlsx
+++ b/outputProbabilidadesPorEtapa.xlsx
@@ -67,45 +67,45 @@
     <t>Croácia</t>
   </si>
   <si>
+    <t>Uruguai</t>
+  </si>
+  <si>
     <t>Alemanha</t>
   </si>
   <si>
-    <t>Uruguai</t>
-  </si>
-  <si>
     <t>Suíça</t>
   </si>
   <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
     <t>México</t>
   </si>
   <si>
-    <t>Estados Unidos</t>
-  </si>
-  <si>
     <t>Sérvia</t>
   </si>
   <si>
     <t>Polônia</t>
   </si>
   <si>
+    <t>Irã</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Irã</t>
-  </si>
-  <si>
     <t>Equador</t>
   </si>
   <si>
+    <t>País de Gales</t>
+  </si>
+  <si>
+    <t>Coreia do Sul</t>
+  </si>
+  <si>
     <t>Japão</t>
   </si>
   <si>
-    <t>Coreia do Sul</t>
-  </si>
-  <si>
-    <t>País de Gales</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -115,10 +115,10 @@
     <t>Austrália</t>
   </si>
   <si>
+    <t>Canadá</t>
+  </si>
+  <si>
     <t>Tunísia</t>
-  </si>
-  <si>
-    <t>Canadá</t>
   </si>
   <si>
     <t>Arábia Saudita</t>
@@ -522,22 +522,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.164</v>
+        <v>0.1703</v>
       </c>
       <c r="C2">
-        <v>0.2887</v>
+        <v>0.2915</v>
       </c>
       <c r="D2">
-        <v>0.2047</v>
+        <v>0.2029</v>
       </c>
       <c r="E2">
-        <v>0.1323</v>
+        <v>0.1269</v>
       </c>
       <c r="F2">
-        <v>0.08739999999999999</v>
+        <v>0.07930000000000001</v>
       </c>
       <c r="G2">
-        <v>0.1229</v>
+        <v>0.1291</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -545,22 +545,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1827</v>
+        <v>0.1942</v>
       </c>
       <c r="C3">
-        <v>0.3231000000000001</v>
+        <v>0.3117</v>
       </c>
       <c r="D3">
-        <v>0.1826</v>
+        <v>0.1909</v>
       </c>
       <c r="E3">
-        <v>0.1361</v>
+        <v>0.1336</v>
       </c>
       <c r="F3">
-        <v>0.06979999999999999</v>
+        <v>0.0701</v>
       </c>
       <c r="G3">
-        <v>0.1057</v>
+        <v>0.09950000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -568,22 +568,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.198</v>
+        <v>0.2145</v>
       </c>
       <c r="C4">
-        <v>0.3190000000000001</v>
+        <v>0.3216</v>
       </c>
       <c r="D4">
-        <v>0.1875</v>
+        <v>0.1867</v>
       </c>
       <c r="E4">
-        <v>0.1304</v>
+        <v>0.126</v>
       </c>
       <c r="F4">
-        <v>0.073</v>
+        <v>0.0677</v>
       </c>
       <c r="G4">
-        <v>0.0921</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -591,19 +591,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2164</v>
+        <v>0.2218</v>
       </c>
       <c r="C5">
-        <v>0.3210999999999999</v>
+        <v>0.3163</v>
       </c>
       <c r="D5">
-        <v>0.2109</v>
+        <v>0.2098</v>
       </c>
       <c r="E5">
-        <v>0.1091</v>
+        <v>0.1109</v>
       </c>
       <c r="F5">
-        <v>0.06539999999999999</v>
+        <v>0.06409999999999999</v>
       </c>
       <c r="G5">
         <v>0.0771</v>
@@ -614,22 +614,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1830000000000001</v>
+        <v>0.1808999999999999</v>
       </c>
       <c r="C6">
-        <v>0.3244</v>
+        <v>0.3341000000000001</v>
       </c>
       <c r="D6">
-        <v>0.224</v>
+        <v>0.2167</v>
       </c>
       <c r="E6">
-        <v>0.1319</v>
+        <v>0.1271</v>
       </c>
       <c r="F6">
-        <v>0.06259999999999999</v>
+        <v>0.0682</v>
       </c>
       <c r="G6">
-        <v>0.0741</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -637,22 +637,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2677</v>
+        <v>0.2643</v>
       </c>
       <c r="C7">
-        <v>0.2989999999999999</v>
+        <v>0.3086</v>
       </c>
       <c r="D7">
-        <v>0.197</v>
+        <v>0.1934</v>
       </c>
       <c r="E7">
-        <v>0.1036</v>
+        <v>0.1043</v>
       </c>
       <c r="F7">
-        <v>0.06020000000000002</v>
+        <v>0.06259999999999999</v>
       </c>
       <c r="G7">
-        <v>0.0725</v>
+        <v>0.0668</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -660,22 +660,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2193000000000001</v>
+        <v>0.2227</v>
       </c>
       <c r="C8">
-        <v>0.3670999999999999</v>
+        <v>0.3664</v>
       </c>
       <c r="D8">
-        <v>0.1913</v>
+        <v>0.1866</v>
       </c>
       <c r="E8">
-        <v>0.1025</v>
+        <v>0.104</v>
       </c>
       <c r="F8">
-        <v>0.058</v>
+        <v>0.0617</v>
       </c>
       <c r="G8">
-        <v>0.0618</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -683,22 +683,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2906</v>
+        <v>0.3090000000000001</v>
       </c>
       <c r="C9">
-        <v>0.2844</v>
+        <v>0.2797999999999999</v>
       </c>
       <c r="D9">
-        <v>0.2008</v>
+        <v>0.1899</v>
       </c>
       <c r="E9">
-        <v>0.1076</v>
+        <v>0.1035</v>
       </c>
       <c r="F9">
-        <v>0.05809999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="G9">
-        <v>0.0585</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -706,22 +706,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3048999999999999</v>
+        <v>0.3244</v>
       </c>
       <c r="C10">
-        <v>0.3330000000000001</v>
+        <v>0.3271</v>
       </c>
       <c r="D10">
-        <v>0.1713</v>
+        <v>0.1619</v>
       </c>
       <c r="E10">
-        <v>0.097</v>
+        <v>0.09499999999999999</v>
       </c>
       <c r="F10">
-        <v>0.0512</v>
+        <v>0.0473</v>
       </c>
       <c r="G10">
-        <v>0.0426</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -729,22 +729,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3221000000000001</v>
+        <v>0.3287</v>
       </c>
       <c r="C11">
-        <v>0.3265999999999999</v>
+        <v>0.3204</v>
       </c>
       <c r="D11">
-        <v>0.1824</v>
+        <v>0.1807</v>
       </c>
       <c r="E11">
-        <v>0.0838</v>
+        <v>0.0832</v>
       </c>
       <c r="F11">
-        <v>0.0435</v>
+        <v>0.04579999999999999</v>
       </c>
       <c r="G11">
-        <v>0.0416</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -752,22 +752,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.385</v>
+        <v>0.3034</v>
       </c>
       <c r="C12">
-        <v>0.2936</v>
+        <v>0.3652</v>
       </c>
       <c r="D12">
-        <v>0.1622</v>
+        <v>0.1687</v>
       </c>
       <c r="E12">
-        <v>0.0815</v>
+        <v>0.08040000000000001</v>
       </c>
       <c r="F12">
-        <v>0.0406</v>
+        <v>0.0446</v>
       </c>
       <c r="G12">
-        <v>0.0371</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -775,22 +775,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2911</v>
+        <v>0.3928</v>
       </c>
       <c r="C13">
-        <v>0.3758</v>
+        <v>0.2927</v>
       </c>
       <c r="D13">
-        <v>0.1697</v>
+        <v>0.1602</v>
       </c>
       <c r="E13">
-        <v>0.08419999999999998</v>
+        <v>0.0808</v>
       </c>
       <c r="F13">
-        <v>0.04370000000000001</v>
+        <v>0.0374</v>
       </c>
       <c r="G13">
-        <v>0.0355</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -798,22 +798,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4122</v>
+        <v>0.413</v>
       </c>
       <c r="C14">
-        <v>0.289</v>
+        <v>0.2933999999999999</v>
       </c>
       <c r="D14">
-        <v>0.1558</v>
+        <v>0.1496</v>
       </c>
       <c r="E14">
-        <v>0.07519999999999999</v>
+        <v>0.07409999999999999</v>
       </c>
       <c r="F14">
-        <v>0.0399</v>
+        <v>0.03730000000000001</v>
       </c>
       <c r="G14">
-        <v>0.0279</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -821,22 +821,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4334</v>
+        <v>0.4796</v>
       </c>
       <c r="C15">
-        <v>0.3037</v>
+        <v>0.2497</v>
       </c>
       <c r="D15">
-        <v>0.1372</v>
+        <v>0.1489</v>
       </c>
       <c r="E15">
-        <v>0.07150000000000001</v>
+        <v>0.06870000000000001</v>
       </c>
       <c r="F15">
-        <v>0.0312</v>
+        <v>0.0293</v>
       </c>
       <c r="G15">
-        <v>0.023</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -844,22 +844,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.484</v>
+        <v>0.4394</v>
       </c>
       <c r="C16">
-        <v>0.2591</v>
+        <v>0.3074</v>
       </c>
       <c r="D16">
-        <v>0.1428</v>
+        <v>0.13</v>
       </c>
       <c r="E16">
-        <v>0.06509999999999999</v>
+        <v>0.0723</v>
       </c>
       <c r="F16">
-        <v>0.0284</v>
+        <v>0.0291</v>
       </c>
       <c r="G16">
-        <v>0.0206</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -867,22 +867,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5408999999999999</v>
+        <v>0.5401</v>
       </c>
       <c r="C17">
-        <v>0.2541</v>
+        <v>0.2534</v>
       </c>
       <c r="D17">
-        <v>0.1164</v>
+        <v>0.1171</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.04889999999999999</v>
       </c>
       <c r="F17">
-        <v>0.0228</v>
+        <v>0.0215</v>
       </c>
       <c r="G17">
-        <v>0.0158</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -890,22 +890,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5197000000000001</v>
+        <v>0.5195000000000001</v>
       </c>
       <c r="C18">
-        <v>0.2753</v>
+        <v>0.2688</v>
       </c>
       <c r="D18">
-        <v>0.1125</v>
+        <v>0.1137</v>
       </c>
       <c r="E18">
-        <v>0.0568</v>
+        <v>0.0602</v>
       </c>
       <c r="F18">
-        <v>0.0214</v>
+        <v>0.0236</v>
       </c>
       <c r="G18">
-        <v>0.0143</v>
+        <v>0.0142</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -913,22 +913,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4646</v>
+        <v>0.5925</v>
       </c>
       <c r="C19">
-        <v>0.308</v>
+        <v>0.211</v>
       </c>
       <c r="D19">
-        <v>0.1394</v>
+        <v>0.1154</v>
       </c>
       <c r="E19">
-        <v>0.0537</v>
+        <v>0.04680000000000001</v>
       </c>
       <c r="F19">
-        <v>0.0222</v>
+        <v>0.0203</v>
       </c>
       <c r="G19">
-        <v>0.0121</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -936,22 +936,22 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5893999999999999</v>
+        <v>0.4621</v>
       </c>
       <c r="C20">
-        <v>0.2184</v>
+        <v>0.3146</v>
       </c>
       <c r="D20">
-        <v>0.1161</v>
+        <v>0.1356</v>
       </c>
       <c r="E20">
-        <v>0.0455</v>
+        <v>0.0541</v>
       </c>
       <c r="F20">
-        <v>0.0188</v>
+        <v>0.022</v>
       </c>
       <c r="G20">
-        <v>0.0118</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -959,22 +959,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4814000000000001</v>
+        <v>0.4917</v>
       </c>
       <c r="C21">
-        <v>0.2980999999999999</v>
+        <v>0.2957</v>
       </c>
       <c r="D21">
-        <v>0.1381</v>
+        <v>0.1312</v>
       </c>
       <c r="E21">
-        <v>0.051</v>
+        <v>0.0537</v>
       </c>
       <c r="F21">
-        <v>0.0206</v>
+        <v>0.017</v>
       </c>
       <c r="G21">
-        <v>0.0108</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -982,22 +982,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6145</v>
+        <v>0.6189</v>
       </c>
       <c r="C22">
-        <v>0.2315</v>
+        <v>0.2126</v>
       </c>
       <c r="D22">
-        <v>0.0965</v>
+        <v>0.1053</v>
       </c>
       <c r="E22">
-        <v>0.0353</v>
+        <v>0.03900000000000001</v>
       </c>
       <c r="F22">
-        <v>0.0126</v>
+        <v>0.0148</v>
       </c>
       <c r="G22">
-        <v>0.009599999999999999</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1005,22 +1005,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5358000000000001</v>
+        <v>0.5319</v>
       </c>
       <c r="C23">
-        <v>0.2965</v>
+        <v>0.2908</v>
       </c>
       <c r="D23">
-        <v>0.1032</v>
+        <v>0.1112</v>
       </c>
       <c r="E23">
-        <v>0.0391</v>
+        <v>0.0411</v>
       </c>
       <c r="F23">
-        <v>0.0173</v>
+        <v>0.016</v>
       </c>
       <c r="G23">
-        <v>0.0081</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1028,22 +1028,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.636</v>
+        <v>0.62</v>
       </c>
       <c r="C24">
-        <v>0.208</v>
+        <v>0.2257</v>
       </c>
       <c r="D24">
-        <v>0.097</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="E24">
-        <v>0.03759999999999999</v>
+        <v>0.0356</v>
       </c>
       <c r="F24">
-        <v>0.0138</v>
+        <v>0.0167</v>
       </c>
       <c r="G24">
-        <v>0.0076</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1051,22 +1051,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7328</v>
+        <v>0.7229</v>
       </c>
       <c r="C25">
-        <v>0.1704</v>
+        <v>0.1768</v>
       </c>
       <c r="D25">
-        <v>0.0613</v>
+        <v>0.06359999999999999</v>
       </c>
       <c r="E25">
         <v>0.0234</v>
       </c>
       <c r="F25">
-        <v>0.007900000000000001</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="G25">
-        <v>0.0042</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1074,22 +1074,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7060999999999999</v>
+        <v>0.6965</v>
       </c>
       <c r="C26">
-        <v>0.1924</v>
+        <v>0.1967</v>
       </c>
       <c r="D26">
-        <v>0.06770000000000001</v>
+        <v>0.07220000000000001</v>
       </c>
       <c r="E26">
-        <v>0.0227</v>
+        <v>0.0213</v>
       </c>
       <c r="F26">
-        <v>0.007600000000000001</v>
+        <v>0.0092</v>
       </c>
       <c r="G26">
-        <v>0.0035</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1097,22 +1097,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7512</v>
+        <v>0.7328</v>
       </c>
       <c r="C27">
-        <v>0.1686</v>
+        <v>0.1717</v>
       </c>
       <c r="D27">
-        <v>0.04899999999999999</v>
+        <v>0.0583</v>
       </c>
       <c r="E27">
-        <v>0.0208</v>
+        <v>0.0256</v>
       </c>
       <c r="F27">
-        <v>0.006999999999999999</v>
+        <v>0.007899999999999999</v>
       </c>
       <c r="G27">
-        <v>0.0034</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1120,22 +1120,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.7459</v>
+        <v>0.753</v>
       </c>
       <c r="C28">
-        <v>0.1717</v>
+        <v>0.1628</v>
       </c>
       <c r="D28">
-        <v>0.0541</v>
+        <v>0.05789999999999999</v>
       </c>
       <c r="E28">
-        <v>0.0203</v>
+        <v>0.0184</v>
       </c>
       <c r="F28">
-        <v>0.005600000000000001</v>
+        <v>0.004900000000000001</v>
       </c>
       <c r="G28">
-        <v>0.0024</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1143,22 +1143,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.7554</v>
+        <v>0.7282999999999999</v>
       </c>
       <c r="C29">
-        <v>0.1654</v>
+        <v>0.1808</v>
       </c>
       <c r="D29">
-        <v>0.05470000000000001</v>
+        <v>0.05889999999999999</v>
       </c>
       <c r="E29">
-        <v>0.0174</v>
+        <v>0.022</v>
       </c>
       <c r="F29">
-        <v>0.0051</v>
+        <v>0.0073</v>
       </c>
       <c r="G29">
-        <v>0.002</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1166,22 +1166,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.8642</v>
+        <v>0.8469</v>
       </c>
       <c r="C30">
-        <v>0.1056</v>
+        <v>0.1109</v>
       </c>
       <c r="D30">
-        <v>0.0235</v>
+        <v>0.0311</v>
       </c>
       <c r="E30">
-        <v>0.0043</v>
+        <v>0.0083</v>
       </c>
       <c r="F30">
-        <v>0.0017</v>
+        <v>0.0018</v>
       </c>
       <c r="G30">
-        <v>0.0007</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1189,22 +1189,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.8829</v>
+        <v>0.8766</v>
       </c>
       <c r="C31">
-        <v>0.08929999999999999</v>
+        <v>0.09029999999999999</v>
       </c>
       <c r="D31">
-        <v>0.0206</v>
+        <v>0.0245</v>
       </c>
       <c r="E31">
-        <v>0.004999999999999999</v>
+        <v>0.0046</v>
       </c>
       <c r="F31">
-        <v>0.0018</v>
+        <v>0.0032</v>
       </c>
       <c r="G31">
-        <v>0.0004</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1212,16 +1212,16 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.871</v>
+        <v>0.8653</v>
       </c>
       <c r="C32">
-        <v>0.09960000000000001</v>
+        <v>0.1025</v>
       </c>
       <c r="D32">
-        <v>0.0241</v>
+        <v>0.0255</v>
       </c>
       <c r="E32">
-        <v>0.0042</v>
+        <v>0.0056</v>
       </c>
       <c r="F32">
         <v>0.0008000000000000001</v>
@@ -1235,22 +1235,22 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.9538</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C33">
-        <v>0.0395</v>
+        <v>0.049</v>
       </c>
       <c r="D33">
-        <v>0.0056</v>
+        <v>0.0083</v>
       </c>
       <c r="E33">
-        <v>0.0011</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
